--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线1-1_布阵.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线1-1_布阵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="13890"/>
+    <workbookView windowWidth="28125" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C1_battle01_layout" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C1_battle01_layout!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C1_battle01_layout!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>说明</t>
   </si>
@@ -176,113 +176,18 @@
     <t>角色台词</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{#涂凌待机2动作}{#涂凌忧伤表情}那个(*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ﾉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ﾉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>{#涂凌待机2动作}接下来的战斗就由我来进行说明。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接下来的战斗，我会跟你一起奋战哦ヽ(✿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>▽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)ノ</t>
-    </r>
+    <t>刚才探测获得的一大堆异质物，
+赶紧把他们都派遣上场吧。{#涂凌待机2动作恢复}{#涂凌待机表情}</t>
   </si>
   <si>
-    <t>{#涂凌待机2动作恢复}{#涂凌待机表情}请为我们安排位置吧，我会给你一些提示哦~</t>
+    <t>{#涂凌开心动作{#涂凌开心表情}而我作为异质物的控制者，
+可以上阵在它们的身后。</t>
   </si>
   <si>
-    <t>{#闪白ding}{#涂凌点赞动作}{#涂凌平静表情}新获得的那个小家伙防守很有一套。</t>
-  </si>
-  <si>
-    <t>就把他拖动上阵&lt;z=green&gt;前排&lt;/z&gt;吧~{#涂凌点赞动作恢复}</t>
-  </si>
-  <si>
-    <t>{#涂凌开心动作}而我作为它的控制者，上阵在它的身后。</t>
-  </si>
-  <si>
-    <t>点击【+】选择就好~</t>
+    <t>点击【+】选择就好。</t>
   </si>
   <si>
     <t>现在就来试一下吧~</t>
@@ -313,7 +218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +426,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2562,12 +2461,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2611,25 +2510,41 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="17" t="e">
-        <f ca="1">INDEX($D$5:$D$890,CELL("row")-4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="18" t="e">
+      <c r="D2" s="17" t="str">
+        <f ca="1">INDEX($D$5:$D$887,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="18" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="19" t="e">
+        <v>npc_meiluni
+【行为主体，NPC别名，在角色表中配置】</v>
+      </c>
+      <c r="F2" s="19" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="19" t="e">
+        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
+【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
+【命令用{}括起】
+【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
+【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
+【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
+【s代表文字速度，原speed，数值越小越快】
+【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
+【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
+【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
+【&amp;XXX】词条简易配置方式{&amp;涂凌}
+【#XXX】文本宏简易配置方式</v>
+      </c>
+      <c r="G2" s="19" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="19" t="e">
+        <v>rui_01
+【语音文件的名字】</v>
+      </c>
+      <c r="H2" s="19" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
+recall=1,scale=1.3,rotate=30
+【recall代表文字居中，默认是左对齐】
+【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>6</v>
@@ -2715,7 +2630,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2736,7 +2651,7 @@
     </row>
     <row r="7" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="31"/>
@@ -2755,7 +2670,7 @@
     </row>
     <row r="8" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A8" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="31"/>
@@ -2774,7 +2689,7 @@
     </row>
     <row r="9" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" ref="A9:A23" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="30"/>
@@ -2812,7 +2727,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+    <row r="11" s="9" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2832,7 +2747,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+    <row r="12" s="9" customFormat="1" ht="52" customHeight="1" spans="1:9">
       <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2852,9 +2767,9 @@
       <c r="H12" s="33"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="36" customHeight="1" spans="1:9">
+    <row r="13" s="9" customFormat="1" ht="37" customHeight="1" spans="1:9">
       <c r="A13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A13:A20" si="1">ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="30"/>
@@ -2874,7 +2789,7 @@
     </row>
     <row r="14" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A14" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B14" s="30"/>
@@ -2894,7 +2809,7 @@
     </row>
     <row r="15" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A15" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B15" s="30"/>
@@ -2914,19 +2829,19 @@
     </row>
     <row r="16" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>37</v>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -2934,19 +2849,19 @@
     </row>
     <row r="17" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A17" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -2954,19 +2869,19 @@
     </row>
     <row r="18" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A18" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>39</v>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
@@ -2974,84 +2889,24 @@
     </row>
     <row r="19" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A19" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="32">
-        <v>1</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+    <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
-      <c r="A21" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
-      <c r="A22" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23">
+  <autoFilter ref="A1:J20">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3091,10 +2946,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3162,10 +3017,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([1]AVG指令文档!D5&lt;&gt;0,[1]AVG指令文档!D5,"")</f>
@@ -3222,7 +3077,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
